--- a/Mosfets/IRFP4468PbF.xlsx
+++ b/Mosfets/IRFP4468PbF.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SEM1PRO\Mosfets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19230" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19230" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IRFP4468PbF loss and tempurtur" sheetId="6" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Nominal current in MOSFET" sheetId="11" r:id="rId5"/>
     <sheet name="Ark1" sheetId="12" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -608,14 +613,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="8" formatCode="&quot;kr.&quot;\ #,##0.00;[Red]&quot;kr.&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="&quot;kr.&quot;\ #,##0.00;[Red]&quot;kr.&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1091,7 +1096,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1206,38 +1211,38 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1277,17 +1282,37 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="da-DK"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1366,40 +1391,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="162310784"/>
-        <c:axId val="162406784"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-4096208"/>
+        <c:axId val="-4098928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162310784"/>
+        <c:axId val="-4096208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162406784"/>
+        <c:crossAx val="-4098928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162406784"/>
+        <c:axId val="-4098928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162310784"/>
+        <c:crossAx val="-4096208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2746,9 +2789,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2786,9 +2829,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2820,9 +2863,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2854,9 +2898,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3029,14 +3074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -3048,7 +3093,7 @@
     <col min="8" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60.75" thickBot="1">
+    <row r="1" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="64" t="s">
         <v>91</v>
       </c>
@@ -3092,7 +3137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
@@ -3133,15 +3178,15 @@
         <v>36.130000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:14">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -3152,7 +3197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>31</v>
       </c>
@@ -3164,19 +3209,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="5"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>32</v>
       </c>
@@ -3188,7 +3233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
@@ -3200,7 +3245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -3212,7 +3257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
@@ -3223,7 +3268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>47</v>
       </c>
@@ -3234,15 +3279,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="18" spans="1:3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>42</v>
       </c>
@@ -3253,7 +3298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>168</v>
       </c>
@@ -3263,7 +3308,7 @@
       </c>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="96" t="s">
         <v>10</v>
       </c>
@@ -3275,7 +3320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
@@ -3287,7 +3332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>46</v>
       </c>
@@ -3299,15 +3344,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:3">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>169</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>48</v>
       </c>
@@ -3318,49 +3363,49 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="2"/>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="101">
         <f>'Swtching loss'!C89</f>
-        <v>48.688757033248081</v>
+        <v>47.104757033248077</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="46"/>
       <c r="C30" s="44"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="33" spans="1:29">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" thickBot="1">
+    <row r="34" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="102">
         <f>B29+B23</f>
-        <v>67.185855448215094</v>
+        <v>65.60185544821509</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" thickBot="1">
+    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -3391,13 +3436,13 @@
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
     </row>
-    <row r="38" spans="1:29" ht="36">
+    <row r="38" spans="1:29" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.75" thickBot="1"/>
-    <row r="40" spans="1:29" ht="30.75" thickBot="1">
+    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.75" thickBot="1">
+    <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>21</v>
       </c>
@@ -3449,15 +3494,15 @@
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:29">
+    <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="68" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="23"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>79</v>
       </c>
@@ -3469,7 +3514,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>80</v>
       </c>
@@ -3480,7 +3525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>78</v>
       </c>
@@ -3492,12 +3537,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="2"/>
       <c r="C48" s="12"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>92</v>
       </c>
@@ -3506,7 +3551,7 @@
       </c>
       <c r="C49" s="12"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>93</v>
       </c>
@@ -3518,12 +3563,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="2"/>
       <c r="C51" s="12"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>81</v>
       </c>
@@ -3534,7 +3579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>88</v>
       </c>
@@ -3546,7 +3591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>86</v>
       </c>
@@ -3557,7 +3602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>94</v>
       </c>
@@ -3569,15 +3614,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="59" spans="1:3">
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
         <v>95</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>96</v>
       </c>
@@ -3589,7 +3634,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>98</v>
       </c>
@@ -3601,7 +3646,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1">
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>99</v>
       </c>
@@ -3613,15 +3658,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="15.75" thickBot="1"/>
-    <row r="66" spans="1:29">
+    <row r="65" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="68" t="s">
         <v>100</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>103</v>
       </c>
@@ -3632,7 +3677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>104</v>
       </c>
@@ -3644,7 +3689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>101</v>
       </c>
@@ -3653,43 +3698,43 @@
       </c>
       <c r="C69" s="12"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B70" s="101">
         <f>(B69*B62*B34)*(1-EXP(-B68/(B62*B55)))+B67</f>
-        <v>28.719890284068864</v>
+        <v>28.632188696128132</v>
       </c>
       <c r="C70" s="69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B71" s="101">
         <f>B70+B34*B61</f>
-        <v>44.844495591640481</v>
+        <v>44.376634003699749</v>
       </c>
       <c r="C71" s="69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="15.75" thickBot="1">
+    <row r="72" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
         <v>106</v>
       </c>
       <c r="B72" s="100">
         <f>B71+B34*B60</f>
-        <v>64.328393671622848</v>
+        <v>63.401172083682127</v>
       </c>
       <c r="C72" s="70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="15.75" thickBot="1">
+    <row r="78" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -3720,20 +3765,20 @@
       <c r="AB78" s="15"/>
       <c r="AC78" s="15"/>
     </row>
-    <row r="79" spans="1:29" ht="108">
+    <row r="79" spans="1:29" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="74" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="82" spans="1:5">
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="75" t="s">
         <v>147</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>144</v>
       </c>
@@ -3745,7 +3790,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>145</v>
       </c>
@@ -3757,7 +3802,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1">
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>146</v>
       </c>
@@ -3769,15 +3814,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="87" spans="1:5" ht="33.75" customHeight="1">
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="76" t="s">
         <v>148</v>
       </c>
       <c r="B87" s="22"/>
       <c r="C87" s="23"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1">
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="61" t="s">
         <v>151</v>
       </c>
@@ -3789,15 +3834,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="90" spans="1:5" ht="33" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="76" t="s">
         <v>149</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="23"/>
     </row>
-    <row r="91" spans="1:5" ht="45">
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="77" t="s">
         <v>150</v>
       </c>
@@ -3807,7 +3852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1">
+    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="61" t="s">
         <v>152</v>
       </c>
@@ -3818,15 +3863,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="95" spans="1:5" ht="32.25" customHeight="1">
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="78" t="s">
         <v>153</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="63" t="s">
         <v>75</v>
       </c>
@@ -3838,22 +3883,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="99" spans="1:3">
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="68" t="s">
         <v>159</v>
       </c>
       <c r="B99" s="22"/>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="80" t="s">
         <v>156</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="12"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>154</v>
       </c>
@@ -3864,7 +3909,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>107</v>
       </c>
@@ -3875,7 +3920,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>155</v>
       </c>
@@ -3887,94 +3932,94 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="82"/>
       <c r="B104" s="2"/>
       <c r="C104" s="12"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="82" t="s">
         <v>158</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="12"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="82"/>
       <c r="B106" s="2"/>
       <c r="C106" s="12"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" thickBot="1">
+    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="83" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="46">
         <f>B96*B102/100+B34*B101/100</f>
-        <v>24.077104563086923</v>
+        <v>23.549157363086923</v>
       </c>
       <c r="C107" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="81"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" thickBot="1">
+    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="81"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="84" t="s">
         <v>163</v>
       </c>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B111" s="60">
         <f>B67+B107*B62*B69</f>
-        <v>85.192761407717313</v>
+        <v>83.872893407717299</v>
       </c>
       <c r="C111" s="69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B112" s="60">
         <f>B111+B107*B61</f>
-        <v>90.971266502858171</v>
+        <v>89.524691174858162</v>
       </c>
       <c r="C112" s="69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="15.75" thickBot="1">
+    <row r="113" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="61" t="s">
         <v>106</v>
       </c>
       <c r="B113" s="46">
         <f>B112+B107*B60</f>
-        <v>97.953626826153382</v>
+        <v>96.353946810153374</v>
       </c>
       <c r="C113" s="70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="81"/>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="81"/>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="81"/>
     </row>
-    <row r="119" spans="1:29" ht="15.75" thickBot="1">
+    <row r="119" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -4005,122 +4050,122 @@
       <c r="AB119" s="15"/>
       <c r="AC119" s="15"/>
     </row>
-    <row r="120" spans="1:29" ht="144">
+    <row r="120" spans="1:29" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="74" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="15.75" thickBot="1"/>
-    <row r="124" spans="1:29" ht="18.75">
+    <row r="123" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="108" t="s">
         <v>166</v>
       </c>
       <c r="B124" s="109"/>
       <c r="C124" s="110"/>
     </row>
-    <row r="125" spans="1:29" ht="18.75">
+    <row r="125" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="111" t="s">
         <v>167</v>
       </c>
       <c r="B125" s="112">
         <f>B34-B107</f>
-        <v>43.108750885128174</v>
+        <v>42.052698085128171</v>
       </c>
       <c r="C125" s="113" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="18.75">
+    <row r="126" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="114"/>
       <c r="B126" s="115"/>
       <c r="C126" s="116"/>
     </row>
-    <row r="127" spans="1:29" ht="18.75">
+    <row r="127" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="114"/>
       <c r="B127" s="115"/>
       <c r="C127" s="116"/>
     </row>
-    <row r="128" spans="1:29" ht="18.75">
+    <row r="128" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="111" t="s">
         <v>102</v>
       </c>
       <c r="B128" s="117">
         <f>B69*B125*B62*(1-EXP(-B49/(B62*B55)))</f>
-        <v>0.96114297546000604</v>
+        <v>0.93759746069573935</v>
       </c>
       <c r="C128" s="118" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="39.75" customHeight="1">
+    <row r="129" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="111" t="s">
         <v>105</v>
       </c>
       <c r="B129" s="117">
         <f>B128+B125*B61</f>
-        <v>11.307243187890768</v>
+        <v>11.030245001126501</v>
       </c>
       <c r="C129" s="118" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="19.5" thickBot="1">
+    <row r="130" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="119" t="s">
         <v>106</v>
       </c>
       <c r="B130" s="120">
         <f>B129+B125*B60</f>
-        <v>23.808780944577936</v>
+        <v>23.225527445813668</v>
       </c>
       <c r="C130" s="121" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="133" spans="1:3" ht="23.25">
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A133" s="85" t="s">
         <v>164</v>
       </c>
       <c r="B133" s="86"/>
       <c r="C133" s="87"/>
     </row>
-    <row r="134" spans="1:3" ht="23.25">
+    <row r="134" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A134" s="88" t="s">
         <v>102</v>
       </c>
       <c r="B134" s="107">
         <f>B111+B128</f>
-        <v>86.15390438317732</v>
+        <v>84.810490868413041</v>
       </c>
       <c r="C134" s="90" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="23.25">
+    <row r="135" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A135" s="88" t="s">
         <v>105</v>
       </c>
       <c r="B135" s="89">
         <f>B112+B129</f>
-        <v>102.27850969074893</v>
+        <v>100.55493617598466</v>
       </c>
       <c r="C135" s="90" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="24" thickBot="1">
+    <row r="136" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="91" t="s">
         <v>106</v>
       </c>
       <c r="B136" s="92">
         <f>B113+B130</f>
-        <v>121.76240777073131</v>
+        <v>119.57947425596704</v>
       </c>
       <c r="C136" s="93" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="46.5">
+    <row r="138" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A138" s="94" t="s">
         <v>165</v>
       </c>
@@ -4129,7 +4174,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B139" t="str">
         <f>IF(B136&lt;B19,"Yes","No")</f>
         <v>No</v>
@@ -4157,19 +4202,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-20</v>
       </c>
@@ -4177,7 +4222,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -4185,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
@@ -4196,7 +4241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>90</v>
       </c>
@@ -4204,7 +4249,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -4219,27 +4264,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="69.75">
+    <row r="3" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="29.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="49" t="s">
         <v>51</v>
       </c>
@@ -4251,7 +4296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4272,7 +4317,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -4293,13 +4338,13 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" ht="69.75">
+    <row r="21" spans="1:19" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:19" ht="28.5">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="52" t="s">
         <v>54</v>
       </c>
@@ -4310,7 +4355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="29.25" thickBot="1">
+    <row r="24" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="55" t="s">
         <v>56</v>
       </c>
@@ -4321,7 +4366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" thickBot="1">
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -4342,12 +4387,12 @@
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:19" ht="29.25" thickBot="1">
+    <row r="36" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="42">
+    <row r="37" spans="1:19" ht="42" x14ac:dyDescent="0.35">
       <c r="A37" s="47" t="s">
         <v>58</v>
       </c>
@@ -4362,7 +4407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -4376,7 +4421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -4390,12 +4435,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="2"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -4410,7 +4455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>170</v>
       </c>
@@ -4422,7 +4467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1">
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -4437,7 +4482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.75" thickBot="1">
+    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -4458,18 +4503,18 @@
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="1:19" ht="29.25" thickBot="1">
+    <row r="62" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="13" t="s">
         <v>69</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
     </row>
-    <row r="63" spans="1:19" ht="42">
+    <row r="63" spans="1:19" ht="42" x14ac:dyDescent="0.35">
       <c r="A63" s="47" t="s">
         <v>58</v>
       </c>
@@ -4484,7 +4529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -4498,7 +4543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -4512,12 +4557,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
       <c r="C66" s="2"/>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -4525,26 +4570,26 @@
         <v>171</v>
       </c>
       <c r="C67" s="97">
-        <f>C5*(C38-C37)/C63</f>
-        <v>8.0235294117647064E-8</v>
+        <f>C5*(C64-C65)/C63</f>
+        <v>6.0235294117647057E-8</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="10">
         <f>C67+C23</f>
-        <v>3.1023529411764709E-7</v>
+        <v>2.9023529411764707E-7</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1">
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -4553,13 +4598,13 @@
       </c>
       <c r="C69" s="100">
         <f>0.5*(C67+C23)*'IRFP4468PbF loss and tempurtur'!$B$12*'IRFP4468PbF loss and tempurtur'!$B$13*'IRFP4468PbF loss and tempurtur'!$B$27</f>
-        <v>24.570635294117647</v>
+        <v>22.986635294117647</v>
       </c>
       <c r="D69" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.75" thickBot="1">
+    <row r="85" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -4581,18 +4626,18 @@
       <c r="S85" s="15"/>
       <c r="T85" s="15"/>
     </row>
-    <row r="87" spans="1:20" ht="61.5">
+    <row r="87" spans="1:20" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A87" s="58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="21">
+    <row r="89" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B89" s="59" t="s">
         <v>72</v>
       </c>
       <c r="C89" s="59">
         <f>C69+C43</f>
-        <v>48.688757033248081</v>
+        <v>47.104757033248077</v>
       </c>
       <c r="D89" s="59" t="s">
         <v>15</v>
@@ -4605,19 +4650,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -4628,7 +4673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>B1/3.6</f>
         <v>13.888888888888889</v>
@@ -4637,7 +4682,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -4648,7 +4693,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4659,7 +4704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -4667,7 +4712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -4675,7 +4720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -4684,7 +4729,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -4696,7 +4741,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -4707,7 +4752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>B14*0.0254</f>
         <v>0.13969999999999999</v>
@@ -4716,7 +4761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -4728,7 +4773,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -4740,8 +4785,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:3">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="s">
         <v>124</v>
       </c>
@@ -4753,7 +4798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="73" t="s">
         <v>125</v>
       </c>
@@ -4764,7 +4809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="78.75">
+    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A24" s="71" t="s">
         <v>126</v>
       </c>
@@ -4775,24 +4820,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="78.75">
+    <row r="1" spans="1:3" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A1" s="71" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4804,7 +4849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -4812,7 +4857,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -4823,7 +4868,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -4835,7 +4880,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -4847,7 +4892,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -4859,7 +4904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -4871,7 +4916,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -4880,7 +4925,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -4892,15 +4937,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:3">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>135</v>
       </c>
@@ -4911,7 +4956,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>136</v>
       </c>
@@ -4922,7 +4967,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>138</v>
       </c>
@@ -4934,15 +4979,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:3">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
         <v>140</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>141</v>
       </c>
@@ -4954,7 +4999,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>142</v>
       </c>
@@ -4973,22 +5018,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:3" ht="21">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="122" t="s">
         <v>172</v>
       </c>
@@ -4999,7 +5044,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="125" t="s">
         <v>173</v>
       </c>
@@ -5011,7 +5056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="125" t="s">
         <v>174</v>
       </c>
@@ -5020,7 +5065,7 @@
       </c>
       <c r="C5" s="127"/>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="125" t="s">
         <v>175</v>
       </c>
@@ -5032,7 +5077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21.75" thickBot="1">
+    <row r="7" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="129" t="s">
         <v>176</v>
       </c>
